--- a/data/Tribogenics - ThanhTQ4.xlsx
+++ b/data/Tribogenics - ThanhTQ4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="206">
   <si>
     <t>TEST SCENARIO IDENTIFICATION</t>
   </si>
@@ -77,41 +77,6 @@
   </si>
   <si>
     <t>Check Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	-&amp;nbsp;&lt;span style="background-color: rgb(238, 238, 238); font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px;"&gt;User log in successful with Tribogenics Administrator account&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	- Add new role action is initiated from the UI.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	-&amp;nbsp;&lt;span style="background-color: rgb(238, 238, 238); font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px;"&gt;User log in successful with Tribogenics Administrator account&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;- Add new role action is initiated from the UI.&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="margin-top: 0px; font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;
-	-&amp;nbsp;&lt;span style="margin: 0px; padding: 0px; font-size: 11.7px;"&gt;User log in successful with Tribogenics Administrator account&lt;/span&gt;&lt;/p&gt;
-&lt;p style="font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;
-	&lt;span style="margin: 0px; padding: 0px; font-size: 11.7px;"&gt;- Add new role action is initiated from the UI.&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;User login successful as Custormer administrator.&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="margin-top: 0px; font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;
-	-&amp;nbsp;&lt;span style="margin: 0px; padding: 0px; font-size: 11.7px;"&gt;User log in successful with Tribogenics Administrator account&lt;/span&gt;&lt;/p&gt;
-&lt;p style="font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;
-	- Add new role action is initiated from the UI.&lt;/p&gt;
-&lt;p style="font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;
-	- New role has been successfully added to the System.&lt;/p&gt;
-</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;
@@ -164,11 +129,6 @@
   <si>
     <t xml:space="preserve">1. 
 	On&amp;nbsp;&lt;span style="background-color: rgb(238, 238, 238); font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px;"&gt;New Role Successfully Added popup, click on &amp;quot;Add another role&amp;quot; hyperlink&lt;/span&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 
-	On&amp;nbsp;&lt;span style="background-color: rgb(238, 238, 238); font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px;"&gt;New Role Successfully Added popup, click on &amp;quot;View Role List&amp;quot; hyperlink&lt;/span&gt;
 </t>
   </si>
   <si>
@@ -217,16 +177,6 @@
   </si>
   <si>
     <t xml:space="preserve">1. 
-	&lt;span style="color: rgb(51, 51, 51); font
- -family: Arial, sans
- -serif; font
- -size: 14px; background
- -color: rgb(255, 255, 255);"&gt;Close the pop
- -up, View Role List screen will display.&lt;/span&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 
 	User is directed to login page
 </t>
   </si>
@@ -283,29 +233,6 @@
   </si>
   <si>
     <t>Customer Administrator can not access modify existing role screen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="margin: 0px; padding: 0px; font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;User login successful into the system as a Tribogenics Administrator account&amp;nbsp;&lt;/span&gt;&lt;span style="margin: 0px; padding: 0px; font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;and navigates to Modify Existing Role screen&lt;/span&gt;&lt;span style="margin: 0px; padding: 0px; font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;.&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="margin: 0px; padding: 0px; font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;- User login successful into the system as a Tribogenics Administrator account&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="margin: 0px; padding: 0px; font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;- Modify role action is initiated from the UI.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	- Role must exist within the System in order to perform modify action&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="margin-top: 0px; font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;
-	&lt;span style="margin: 0px; padding: 0px; font-size: 11.7px;"&gt;- User login successful into the system as a Tribogenics Administrator account&lt;/span&gt;&lt;/p&gt;
-&lt;p style="font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;
-	&lt;span style="margin: 0px; padding: 0px; font-size: 11.7px;"&gt;- Modify role action is initiated from the UI.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;
-	- Role must exist within the System in order to perform modify action&lt;/p&gt;
-</t>
   </si>
   <si>
     <t xml:space="preserve">1. 
@@ -486,52 +413,6 @@
     <t>Customer Administrator can not access View role list screen.</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;User login successful into the system as a Tribogenics Administrator account&amp;nbsp;&lt;/span&gt;&lt;span style="background-color: rgb(238, 238, 238); font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px;"&gt;and navigates to Role screen&lt;/span&gt;&lt;span style="background-color: rgb(238, 238, 238); font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px;"&gt;.&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;User login successful into the system as a Tribogenics Administrator account.&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;User log in successful with Tribogenics Administrator account and navigates to Role screen.&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;User log in successful with Tribogenics Administrator account and navigates to Role screen.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;font face="Trebuchet MS, Arial, Verdana, sans-serif"&gt;&lt;span style="font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;On Role screen, there are more than 60 roles in system.&lt;/span&gt;&lt;/font&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="margin-top: 0px; font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;
-	&lt;span style="margin: 0px; padding: 0px; font-size: 11.7px;"&gt;User log in successful with Tribogenics Administrator account and navigates to Role screen.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;
-	&lt;font face="Trebuchet MS, Arial, Verdana, sans-serif"&gt;On Role screen, there are more than 5 roles in system&lt;/font&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	User log in successful with Tribogenics Administrator account and navigates to Role screen&lt;/p&gt;
-&lt;p&gt;
-	&amp;nbsp;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;&amp;nbsp;User log in successful with Tribogenics Administrator account and navigates to Role screen.&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-family: &amp;quot;Trebuchet MS&amp;quot;, Arial, Verdana, sans-serif; font-size: 11.7px; background-color: rgb(238, 238, 238);"&gt;User login successful as Customer administrator.&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. 
 	User navigates to Role screen of Tribogenics system.
 </t>
@@ -929,12 +810,114 @@
   <si>
     <t>Click on export PDF button</t>
   </si>
+  <si>
+    <t>Verify message</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close the pop-up, View Role List screen will display.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. New Role Successfully Added popup, click on "View Role List" hyperlink
+</t>
+  </si>
+  <si>
+    <t>Step Converted</t>
+  </si>
+  <si>
+    <t>User log in successful with Tribogenics Administrator account
+	- Add new role action is initiated from the 
+	- New role has been successfully added to theSystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User login successful as Custormer administrator
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User login successful into the system as a Tribogenics Administrator account
+Modify role action is initiated from the UI.
+Role must exist within the System in order to perform modify action
+</t>
+  </si>
+  <si>
+    <t>User login successful into the system as a Tribogenics Administrator account
+Modify role action is initiated from the UI.
+Role must exist within the System in order to perform modify action</t>
+  </si>
+  <si>
+    <t>User login successful into the system as a Tribogenics Administrator accountand navigates to Modify Existing Role screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User log in successful with Tribogenics Administrator account
+Add new role action is initiated from the UI
+ New role has been successfully added to the Syste
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User log in successful with Tribogenics Administrator account
+Add new role action is initiated from the UI.&lt;/p&gt;
+ New role has been successfully added to the System.
+</t>
+  </si>
+  <si>
+    <t>User login successful as Custormer administrator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User log in successful with Tribogenics Administrator account
+Add new role action is initiated from the UI
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User log in successful with Tribogenics Administrator account
+Add new role action is initiated from theUI
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User log in successful with Tribogenics Administrator account
+Add new role action is initiated from the UI.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User login successful as Customer administrator.
+</t>
+  </si>
+  <si>
+    <t>User log in successful with Tribogenics Administrator account and navigates to Role screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	User log in successful with Tribogenics Administrator account and navigates to Role screen
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User log in successful with Tribogenics Administrator account and navigates to Role screen.
+</t>
+  </si>
+  <si>
+    <t>User login successful into the system as a Tribogenics Administrator account</t>
+  </si>
+  <si>
+    <t>User login successful into the system as a Tribogenics Administrator account and navigates to Role screen</t>
+  </si>
+  <si>
+    <t>User log in successful with Tribogenics Administrator account and navigates to Role screen.
+On Role screen, there are more than 60 roles in system.</t>
+  </si>
+  <si>
+    <t>User log in successful with Tribogenics Administrator account and navigates to Role screen.
+On Role screen, there are more than 5 roles in system</t>
+  </si>
+  <si>
+    <t>Admin.Group.Edit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1130,8 +1113,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1169,6 +1161,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1328,7 +1326,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1493,6 +1491,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1780,477 +1782,599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BG71"/>
+  <dimension ref="A1:BG72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="A33" sqref="A33"/>
+      <selection pane="topRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
     <col min="2" max="14" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:59" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:59" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="O1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="6" t="s">
+      <c r="L2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Z4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AB4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AB3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59" ht="256.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="AC4" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V4" s="9" t="s">
+      <c r="G5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="Y4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:59" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="AA5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="X5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="AB5" s="9" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD5" s="48" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:59" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="P6" s="5" t="s">
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="56"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="56"/>
+      <c r="BD5" s="56"/>
+      <c r="BE5" s="56"/>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="56"/>
+    </row>
+    <row r="6" spans="1:59" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA6" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD6" s="48" t="s">
-        <v>41</v>
+      <c r="C6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD6" s="50" t="s">
+        <v>36</v>
       </c>
       <c r="AE6" s="56"/>
       <c r="AF6" s="56"/>
@@ -2283,95 +2407,95 @@
       <c r="BG6" s="56"/>
     </row>
     <row r="7" spans="1:59" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>42</v>
+      <c r="A7" s="69" t="s">
+        <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="O7" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="70" t="s">
+        <v>39</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AB7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD7" s="50" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="AC7" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD7" s="71" t="s">
+        <v>39</v>
       </c>
       <c r="AE7" s="56"/>
       <c r="AF7" s="56"/>
@@ -2403,97 +2527,41 @@
       <c r="BF7" s="56"/>
       <c r="BG7" s="56"/>
     </row>
-    <row r="8" spans="1:59" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="R8" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="U8" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="W8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC8" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD8" s="71" t="s">
-        <v>46</v>
-      </c>
+    <row r="8" spans="1:59" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="85"/>
+      <c r="B8" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD8" s="86"/>
       <c r="AE8" s="56"/>
       <c r="AF8" s="56"/>
       <c r="AG8" s="56"/>
@@ -2526,7 +2594,9 @@
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
-      <c r="B9" s="31"/>
+      <c r="B9" s="84" t="s">
+        <v>182</v>
+      </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
@@ -2539,14 +2609,18 @@
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
-      <c r="O9" s="45"/>
+      <c r="O9" s="84" t="s">
+        <v>182</v>
+      </c>
       <c r="P9" s="45"/>
       <c r="Q9" s="45"/>
       <c r="R9" s="45"/>
       <c r="S9" s="45"/>
       <c r="T9" s="45"/>
       <c r="U9" s="45"/>
-      <c r="V9" s="38"/>
+      <c r="V9" s="84" t="s">
+        <v>182</v>
+      </c>
       <c r="W9" s="38"/>
       <c r="X9" s="38"/>
       <c r="Y9" s="38"/>
@@ -2587,94 +2661,94 @@
     </row>
     <row r="10" spans="1:59" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="M10" s="28" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="N10" s="28" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="O10" s="65" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="P10" s="65" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="42" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="R10" s="42" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="S10" s="42" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="T10" s="42" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="U10" s="42" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="V10" s="35" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="W10" s="35" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="X10" s="35" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="Y10" s="35" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="Z10" s="35" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="AA10" s="35" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="AB10" s="35" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="AC10" s="42" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="AD10" s="52" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="AE10" s="58"/>
       <c r="AF10" s="58"/>
@@ -2708,7 +2782,7 @@
     </row>
     <row r="11" spans="1:59" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B11" s="28">
         <v>123456</v>
@@ -2890,77 +2964,72 @@
     </row>
     <row r="13" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="28"/>
+        <v>119</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>119</v>
+      </c>
       <c r="D13" s="29" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="26" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="L13" s="26" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="M13" s="28"/>
-      <c r="N13" s="26" t="s">
-        <v>137</v>
-      </c>
+      <c r="N13" s="26"/>
       <c r="O13" s="43" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="P13" s="43" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="43" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="R13" s="43" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="S13" s="43" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="T13" s="43" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="U13" s="43" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="V13" s="36" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="W13" s="35"/>
       <c r="X13" s="36" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="Y13" s="36" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="Z13" s="35"/>
       <c r="AA13" s="35"/>
       <c r="AB13" s="35"/>
-      <c r="AC13" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD13" s="54" t="s">
-        <v>137</v>
-      </c>
+      <c r="AD13" s="54"/>
       <c r="AE13" s="59"/>
       <c r="AF13" s="59"/>
       <c r="AG13" s="59"/>
@@ -2993,7 +3062,7 @@
     </row>
     <row r="14" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="28"/>
@@ -3022,7 +3091,7 @@
       <c r="Z14" s="35"/>
       <c r="AA14" s="35"/>
       <c r="AB14" s="35"/>
-      <c r="AC14" s="41"/>
+      <c r="AC14" s="43"/>
       <c r="AD14" s="41"/>
       <c r="AE14" s="59"/>
       <c r="AF14" s="59"/>
@@ -3055,8 +3124,10 @@
       <c r="BG14" s="56"/>
     </row>
     <row r="15" spans="1:59" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="25"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -3069,14 +3140,14 @@
       <c r="L15" s="26"/>
       <c r="M15" s="28"/>
       <c r="N15" s="26"/>
-      <c r="O15" s="43"/>
+      <c r="O15" s="62"/>
       <c r="P15" s="42"/>
       <c r="Q15" s="43"/>
       <c r="R15" s="43"/>
       <c r="S15" s="42"/>
       <c r="T15" s="42"/>
       <c r="U15" s="42"/>
-      <c r="V15" s="36"/>
+      <c r="V15" s="33"/>
       <c r="W15" s="35"/>
       <c r="X15" s="36"/>
       <c r="Y15" s="36"/>
@@ -3116,51 +3187,47 @@
       <c r="BG15" s="56"/>
     </row>
     <row r="16" spans="1:59" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>137</v>
-      </c>
+      <c r="A16" s="39"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
+      <c r="N16" s="26"/>
       <c r="O16" s="43"/>
       <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
       <c r="S16" s="42"/>
       <c r="T16" s="42"/>
       <c r="U16" s="42"/>
       <c r="V16" s="36"/>
       <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
       <c r="Z16" s="35"/>
       <c r="AA16" s="35"/>
       <c r="AB16" s="35"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="58"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
       <c r="AG16" s="58"/>
-      <c r="AH16" s="58"/>
+      <c r="AH16" s="59"/>
       <c r="AI16" s="58"/>
       <c r="AJ16" s="58"/>
       <c r="AK16" s="58"/>
       <c r="AL16" s="58"/>
       <c r="AM16" s="58"/>
       <c r="AN16" s="55"/>
-      <c r="AO16" s="58"/>
+      <c r="AO16" s="59"/>
       <c r="AP16" s="58"/>
       <c r="AQ16" s="58"/>
       <c r="AR16" s="58"/>
@@ -3182,10 +3249,10 @@
     </row>
     <row r="17" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
@@ -3247,10 +3314,10 @@
     </row>
     <row r="18" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
@@ -3312,10 +3379,10 @@
     </row>
     <row r="19" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
@@ -3377,10 +3444,10 @@
     </row>
     <row r="20" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
@@ -3441,11 +3508,11 @@
       <c r="BG20" s="56"/>
     </row>
     <row r="21" spans="1:59" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>167</v>
+      <c r="A21" s="39" t="s">
+        <v>148</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
@@ -3506,38 +3573,40 @@
       <c r="BG21" s="56"/>
     </row>
     <row r="22" spans="1:59" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="76"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="77"/>
+      <c r="A22" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="52"/>
       <c r="AE22" s="58"/>
       <c r="AF22" s="58"/>
       <c r="AG22" s="58"/>
@@ -3569,38 +3638,38 @@
       <c r="BG22" s="56"/>
     </row>
     <row r="23" spans="1:59" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
+      <c r="A23" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="77"/>
       <c r="AE23" s="58"/>
       <c r="AF23" s="58"/>
       <c r="AG23" s="58"/>
@@ -3632,8 +3701,10 @@
       <c r="BG23" s="56"/>
     </row>
     <row r="24" spans="1:59" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="78"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -3646,14 +3717,14 @@
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
       <c r="N24" s="28"/>
-      <c r="O24" s="43"/>
+      <c r="O24" s="63"/>
       <c r="P24" s="42"/>
       <c r="Q24" s="42"/>
       <c r="R24" s="42"/>
       <c r="S24" s="42"/>
       <c r="T24" s="42"/>
       <c r="U24" s="42"/>
-      <c r="V24" s="36"/>
+      <c r="V24" s="79"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
@@ -3693,9 +3764,7 @@
       <c r="BG24" s="56"/>
     </row>
     <row r="25" spans="1:59" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>186</v>
-      </c>
+      <c r="A25" s="49"/>
       <c r="B25" s="29"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
@@ -3709,18 +3778,14 @@
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
-      <c r="O25" s="43" t="s">
-        <v>137</v>
-      </c>
+      <c r="O25" s="43"/>
       <c r="P25" s="42"/>
       <c r="Q25" s="42"/>
       <c r="R25" s="42"/>
       <c r="S25" s="42"/>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
-      <c r="V25" s="43" t="s">
-        <v>137</v>
-      </c>
+      <c r="V25" s="36"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
@@ -3761,9 +3826,9 @@
     </row>
     <row r="26" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="B26" s="66"/>
+        <v>168</v>
+      </c>
+      <c r="B26" s="29"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
@@ -3775,11 +3840,9 @@
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
-      <c r="N26" s="80" t="s">
-        <v>151</v>
-      </c>
+      <c r="N26" s="28"/>
       <c r="O26" s="43" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="P26" s="42"/>
       <c r="Q26" s="42"/>
@@ -3788,7 +3851,7 @@
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
       <c r="V26" s="43" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="W26" s="35"/>
       <c r="X26" s="35"/>
@@ -3829,8 +3892,8 @@
       <c r="BG26" s="56"/>
     </row>
     <row r="27" spans="1:59" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
-        <v>182</v>
+      <c r="A27" s="49" t="s">
+        <v>169</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="28"/>
@@ -3844,11 +3907,9 @@
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
-      <c r="N27" s="80" t="s">
-        <v>151</v>
-      </c>
+      <c r="N27" s="80"/>
       <c r="O27" s="43" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="P27" s="42"/>
       <c r="Q27" s="42"/>
@@ -3857,7 +3918,7 @@
       <c r="T27" s="42"/>
       <c r="U27" s="42"/>
       <c r="V27" s="43" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
@@ -3899,7 +3960,7 @@
     </row>
     <row r="28" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="28"/>
@@ -3913,10 +3974,10 @@
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
-      <c r="N28" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="O28" s="43"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="P28" s="42"/>
       <c r="Q28" s="42"/>
       <c r="R28" s="42"/>
@@ -3924,7 +3985,7 @@
       <c r="T28" s="42"/>
       <c r="U28" s="42"/>
       <c r="V28" s="43" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
@@ -3966,7 +4027,7 @@
     </row>
     <row r="29" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B29" s="66"/>
       <c r="C29" s="28"/>
@@ -3980,12 +4041,8 @@
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
       <c r="M29" s="28"/>
-      <c r="N29" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="O29" s="43" t="s">
-        <v>137</v>
-      </c>
+      <c r="N29" s="80"/>
+      <c r="O29" s="43"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="42"/>
       <c r="R29" s="42"/>
@@ -3993,7 +4050,7 @@
       <c r="T29" s="42"/>
       <c r="U29" s="42"/>
       <c r="V29" s="43" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
@@ -4034,7 +4091,9 @@
       <c r="BG29" s="56"/>
     </row>
     <row r="30" spans="1:59" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="39" t="s">
+        <v>167</v>
+      </c>
       <c r="B30" s="66"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
@@ -4047,17 +4106,19 @@
       <c r="K30" s="28"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
-      <c r="N30" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="O30" s="43"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
       <c r="R30" s="42"/>
       <c r="S30" s="42"/>
       <c r="T30" s="42"/>
       <c r="U30" s="42"/>
-      <c r="V30" s="81"/>
+      <c r="V30" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
@@ -4097,9 +4158,7 @@
       <c r="BG30" s="56"/>
     </row>
     <row r="31" spans="1:59" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
-        <v>190</v>
-      </c>
+      <c r="A31" s="40"/>
       <c r="B31" s="66"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
@@ -4112,12 +4171,8 @@
       <c r="K31" s="28"/>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
-      <c r="N31" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="O31" s="82" t="s">
-        <v>151</v>
-      </c>
+      <c r="N31" s="80"/>
+      <c r="O31" s="43"/>
       <c r="P31" s="42"/>
       <c r="Q31" s="42"/>
       <c r="R31" s="42"/>
@@ -4165,39 +4220,41 @@
     </row>
     <row r="32" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="43"/>
+        <v>172</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="82" t="s">
+        <v>133</v>
+      </c>
       <c r="P32" s="42"/>
       <c r="Q32" s="42"/>
       <c r="R32" s="42"/>
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
       <c r="U32" s="42"/>
-      <c r="V32" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="W32" s="67"/>
-      <c r="X32" s="67"/>
-      <c r="Y32" s="67"/>
-      <c r="Z32" s="67"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="67"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
       <c r="AC32" s="42"/>
-      <c r="AD32" s="42"/>
+      <c r="AD32" s="65" t="s">
+        <v>133</v>
+      </c>
       <c r="AE32" s="58"/>
       <c r="AF32" s="58"/>
       <c r="AG32" s="58"/>
@@ -4230,7 +4287,7 @@
     </row>
     <row r="33" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B33" s="67"/>
       <c r="C33" s="67"/>
@@ -4245,26 +4302,30 @@
       <c r="L33" s="67"/>
       <c r="M33" s="67"/>
       <c r="N33" s="67"/>
-      <c r="O33" s="62"/>
+      <c r="O33" s="43"/>
       <c r="P33" s="42"/>
       <c r="Q33" s="42"/>
       <c r="R33" s="42"/>
       <c r="S33" s="42"/>
       <c r="T33" s="42"/>
       <c r="U33" s="42"/>
-      <c r="V33" s="67"/>
+      <c r="V33" s="83" t="s">
+        <v>174</v>
+      </c>
       <c r="W33" s="67"/>
       <c r="X33" s="67"/>
       <c r="Y33" s="67"/>
       <c r="Z33" s="67"/>
       <c r="AA33" s="67"/>
-      <c r="AB33" s="67"/>
+      <c r="AB33" s="67" t="s">
+        <v>205</v>
+      </c>
       <c r="AC33" s="42"/>
       <c r="AD33" s="42"/>
       <c r="AE33" s="58"/>
       <c r="AF33" s="58"/>
       <c r="AG33" s="58"/>
-      <c r="AH33" s="60"/>
+      <c r="AH33" s="58"/>
       <c r="AI33" s="58"/>
       <c r="AJ33" s="58"/>
       <c r="AK33" s="58"/>
@@ -4293,7 +4354,7 @@
     </row>
     <row r="34" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B34" s="67"/>
       <c r="C34" s="67"/>
@@ -4356,7 +4417,7 @@
     </row>
     <row r="35" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B35" s="67"/>
       <c r="C35" s="67"/>
@@ -4419,7 +4480,7 @@
     </row>
     <row r="36" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B36" s="67"/>
       <c r="C36" s="67"/>
@@ -4482,7 +4543,7 @@
     </row>
     <row r="37" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="B37" s="67"/>
       <c r="C37" s="67"/>
@@ -4545,7 +4606,7 @@
     </row>
     <row r="38" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="40" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B38" s="67"/>
       <c r="C38" s="67"/>
@@ -4608,7 +4669,7 @@
     </row>
     <row r="39" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="40" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B39" s="67"/>
       <c r="C39" s="67"/>
@@ -4671,7 +4732,7 @@
     </row>
     <row r="40" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B40" s="67"/>
       <c r="C40" s="67"/>
@@ -4734,7 +4795,7 @@
     </row>
     <row r="41" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B41" s="67"/>
       <c r="C41" s="67"/>
@@ -4795,21 +4856,53 @@
       <c r="BF41" s="56"/>
       <c r="BG41" s="56"/>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="AE42" s="56"/>
-      <c r="AF42" s="56"/>
-      <c r="AG42" s="56"/>
-      <c r="AH42" s="56"/>
-      <c r="AI42" s="56"/>
-      <c r="AJ42" s="56"/>
-      <c r="AK42" s="56"/>
-      <c r="AL42" s="56"/>
-      <c r="AM42" s="56"/>
-      <c r="AN42" s="56"/>
-      <c r="AO42" s="56"/>
-      <c r="AP42" s="56"/>
-      <c r="AQ42" s="56"/>
-      <c r="AR42" s="56"/>
+    <row r="42" spans="1:59" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="67"/>
+      <c r="W42" s="67"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="67"/>
+      <c r="Z42" s="67"/>
+      <c r="AA42" s="67"/>
+      <c r="AB42" s="67"/>
+      <c r="AC42" s="42"/>
+      <c r="AD42" s="42"/>
+      <c r="AE42" s="58"/>
+      <c r="AF42" s="58"/>
+      <c r="AG42" s="58"/>
+      <c r="AH42" s="60"/>
+      <c r="AI42" s="58"/>
+      <c r="AJ42" s="58"/>
+      <c r="AK42" s="58"/>
+      <c r="AL42" s="58"/>
+      <c r="AM42" s="58"/>
+      <c r="AN42" s="55"/>
+      <c r="AO42" s="58"/>
+      <c r="AP42" s="58"/>
+      <c r="AQ42" s="58"/>
+      <c r="AR42" s="58"/>
       <c r="AS42" s="56"/>
       <c r="AT42" s="56"/>
       <c r="AU42" s="56"/>
@@ -5695,35 +5788,66 @@
       <c r="BG70" s="56"/>
     </row>
     <row r="71" spans="31:59" x14ac:dyDescent="0.2">
-      <c r="AE71" s="61"/>
-      <c r="AF71" s="61"/>
-      <c r="AG71" s="61"/>
-      <c r="AH71" s="61"/>
-      <c r="AI71" s="61"/>
-      <c r="AJ71" s="61"/>
-      <c r="AK71" s="61"/>
-      <c r="AL71" s="61"/>
-      <c r="AM71" s="61"/>
-      <c r="AN71" s="61"/>
-      <c r="AO71" s="61"/>
-      <c r="AP71" s="61"/>
-      <c r="AQ71" s="61"/>
-      <c r="AR71" s="61"/>
-      <c r="AS71" s="61"/>
-      <c r="AT71" s="61"/>
-      <c r="AU71" s="61"/>
-      <c r="AV71" s="61"/>
-      <c r="AW71" s="61"/>
-      <c r="AX71" s="61"/>
-      <c r="AY71" s="61"/>
-      <c r="AZ71" s="61"/>
-      <c r="BA71" s="61"/>
-      <c r="BB71" s="61"/>
-      <c r="BC71" s="61"/>
-      <c r="BD71" s="61"/>
-      <c r="BE71" s="61"/>
-      <c r="BF71" s="61"/>
-      <c r="BG71" s="61"/>
+      <c r="AE71" s="56"/>
+      <c r="AF71" s="56"/>
+      <c r="AG71" s="56"/>
+      <c r="AH71" s="56"/>
+      <c r="AI71" s="56"/>
+      <c r="AJ71" s="56"/>
+      <c r="AK71" s="56"/>
+      <c r="AL71" s="56"/>
+      <c r="AM71" s="56"/>
+      <c r="AN71" s="56"/>
+      <c r="AO71" s="56"/>
+      <c r="AP71" s="56"/>
+      <c r="AQ71" s="56"/>
+      <c r="AR71" s="56"/>
+      <c r="AS71" s="56"/>
+      <c r="AT71" s="56"/>
+      <c r="AU71" s="56"/>
+      <c r="AV71" s="56"/>
+      <c r="AW71" s="56"/>
+      <c r="AX71" s="56"/>
+      <c r="AY71" s="56"/>
+      <c r="AZ71" s="56"/>
+      <c r="BA71" s="56"/>
+      <c r="BB71" s="56"/>
+      <c r="BC71" s="56"/>
+      <c r="BD71" s="56"/>
+      <c r="BE71" s="56"/>
+      <c r="BF71" s="56"/>
+      <c r="BG71" s="56"/>
+    </row>
+    <row r="72" spans="31:59" x14ac:dyDescent="0.2">
+      <c r="AE72" s="61"/>
+      <c r="AF72" s="61"/>
+      <c r="AG72" s="61"/>
+      <c r="AH72" s="61"/>
+      <c r="AI72" s="61"/>
+      <c r="AJ72" s="61"/>
+      <c r="AK72" s="61"/>
+      <c r="AL72" s="61"/>
+      <c r="AM72" s="61"/>
+      <c r="AN72" s="61"/>
+      <c r="AO72" s="61"/>
+      <c r="AP72" s="61"/>
+      <c r="AQ72" s="61"/>
+      <c r="AR72" s="61"/>
+      <c r="AS72" s="61"/>
+      <c r="AT72" s="61"/>
+      <c r="AU72" s="61"/>
+      <c r="AV72" s="61"/>
+      <c r="AW72" s="61"/>
+      <c r="AX72" s="61"/>
+      <c r="AY72" s="61"/>
+      <c r="AZ72" s="61"/>
+      <c r="BA72" s="61"/>
+      <c r="BB72" s="61"/>
+      <c r="BC72" s="61"/>
+      <c r="BD72" s="61"/>
+      <c r="BE72" s="61"/>
+      <c r="BF72" s="61"/>
+      <c r="BG72" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5746,160 +5870,160 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>

--- a/data/Tribogenics - ThanhTQ4.xlsx
+++ b/data/Tribogenics - ThanhTQ4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="211">
   <si>
     <t>TEST SCENARIO IDENTIFICATION</t>
   </si>
@@ -912,12 +912,27 @@
   <si>
     <t>Admin.Group.Edit</t>
   </si>
+  <si>
+    <t>admin_company</t>
+  </si>
+  <si>
+    <t>muwxecOXyRsu5</t>
+  </si>
+  <si>
+    <t>Rolename1</t>
+  </si>
+  <si>
+    <t>Roledescription1</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1118,6 +1133,19 @@
       <i/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1326,7 +1354,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1495,6 +1523,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1784,10 +1818,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="N13" sqref="N13"/>
+      <selection pane="topRight" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2545,9 +2579,15 @@
       <c r="M8" s="86"/>
       <c r="N8" s="86"/>
       <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
+      <c r="P8" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="R8" s="87" t="s">
+        <v>185</v>
+      </c>
       <c r="S8" s="86"/>
       <c r="T8" s="86"/>
       <c r="U8" s="86"/>
@@ -2659,7 +2699,7 @@
       <c r="BF9" s="56"/>
       <c r="BG9" s="56"/>
     </row>
-    <row r="10" spans="1:59" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>175</v>
       </c>
@@ -2696,8 +2736,8 @@
       <c r="L10" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="M10" s="28" t="s">
-        <v>147</v>
+      <c r="M10" s="88" t="s">
+        <v>206</v>
       </c>
       <c r="N10" s="28" t="s">
         <v>147</v>
@@ -2714,8 +2754,8 @@
       <c r="R10" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="S10" s="42" t="s">
-        <v>147</v>
+      <c r="S10" s="88" t="s">
+        <v>206</v>
       </c>
       <c r="T10" s="42" t="s">
         <v>147</v>
@@ -2738,8 +2778,8 @@
       <c r="Z10" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="AA10" s="35" t="s">
-        <v>147</v>
+      <c r="AA10" s="88" t="s">
+        <v>206</v>
       </c>
       <c r="AB10" s="35" t="s">
         <v>147</v>
@@ -2780,7 +2820,7 @@
       <c r="BF10" s="56"/>
       <c r="BG10" s="56"/>
     </row>
-    <row r="11" spans="1:59" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
         <v>176</v>
       </c>
@@ -2817,8 +2857,8 @@
       <c r="L11" s="28">
         <v>123456</v>
       </c>
-      <c r="M11" s="28">
-        <v>123456</v>
+      <c r="M11" s="88" t="s">
+        <v>207</v>
       </c>
       <c r="N11" s="28">
         <v>123456</v>
@@ -2835,8 +2875,8 @@
       <c r="R11" s="42">
         <v>123456</v>
       </c>
-      <c r="S11" s="42">
-        <v>123456</v>
+      <c r="S11" s="88" t="s">
+        <v>207</v>
       </c>
       <c r="T11" s="42">
         <v>123456</v>
@@ -2859,8 +2899,8 @@
       <c r="Z11" s="35">
         <v>123456</v>
       </c>
-      <c r="AA11" s="35">
-        <v>123456</v>
+      <c r="AA11" s="88" t="s">
+        <v>207</v>
       </c>
       <c r="AB11" s="35">
         <v>123456</v>
@@ -2901,7 +2941,7 @@
       <c r="BF11" s="56"/>
       <c r="BG11" s="56"/>
     </row>
-    <row r="12" spans="1:59" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="44"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -3078,9 +3118,13 @@
       <c r="M14" s="28"/>
       <c r="N14" s="26"/>
       <c r="O14" s="62"/>
-      <c r="P14" s="42"/>
+      <c r="P14" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
+      <c r="R14" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="S14" s="42"/>
       <c r="T14" s="42"/>
       <c r="U14" s="42"/>
@@ -3141,8 +3185,10 @@
       <c r="M15" s="28"/>
       <c r="N15" s="26"/>
       <c r="O15" s="62"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="89" t="s">
+        <v>210</v>
+      </c>
       <c r="R15" s="43"/>
       <c r="S15" s="42"/>
       <c r="T15" s="42"/>
@@ -3844,9 +3890,13 @@
       <c r="O26" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="P26" s="42"/>
+      <c r="P26" s="65" t="s">
+        <v>208</v>
+      </c>
       <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
+      <c r="R26" s="65" t="s">
+        <v>208</v>
+      </c>
       <c r="S26" s="42"/>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
@@ -3911,7 +3961,9 @@
       <c r="O27" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="P27" s="42"/>
+      <c r="P27" s="65" t="s">
+        <v>209</v>
+      </c>
       <c r="Q27" s="42"/>
       <c r="R27" s="42"/>
       <c r="S27" s="42"/>
@@ -4042,7 +4094,9 @@
       <c r="L29" s="28"/>
       <c r="M29" s="28"/>
       <c r="N29" s="80"/>
-      <c r="O29" s="43"/>
+      <c r="O29" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="P29" s="42"/>
       <c r="Q29" s="42"/>
       <c r="R29" s="42"/>
@@ -4107,9 +4161,6 @@
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
       <c r="N30" s="80"/>
-      <c r="O30" s="43" t="s">
-        <v>119</v>
-      </c>
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
       <c r="R30" s="42"/>
@@ -4238,10 +4289,18 @@
       <c r="O32" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
+      <c r="P32" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q32" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="R32" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="S32" s="65" t="s">
+        <v>133</v>
+      </c>
       <c r="T32" s="42"/>
       <c r="U32" s="42"/>
       <c r="V32" s="81"/>
@@ -4316,7 +4375,9 @@
       <c r="X33" s="67"/>
       <c r="Y33" s="67"/>
       <c r="Z33" s="67"/>
-      <c r="AA33" s="67"/>
+      <c r="AA33" s="67" t="s">
+        <v>205</v>
+      </c>
       <c r="AB33" s="67" t="s">
         <v>205</v>
       </c>
@@ -4370,9 +4431,15 @@
       <c r="M34" s="67"/>
       <c r="N34" s="67"/>
       <c r="O34" s="62"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
+      <c r="P34" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q34" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="R34" s="65" t="s">
+        <v>133</v>
+      </c>
       <c r="S34" s="42"/>
       <c r="T34" s="42"/>
       <c r="U34" s="42"/>

--- a/data/Tribogenics - ThanhTQ4.xlsx
+++ b/data/Tribogenics - ThanhTQ4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="220">
   <si>
     <t>TEST SCENARIO IDENTIFICATION</t>
   </si>
@@ -950,7 +950,7 @@
     <t>ad</t>
   </si>
   <si>
-    <t>zzzaa</t>
+    <t>hgtjgbdf</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1372,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1544,6 +1544,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1877,7 +1880,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="U28" sqref="U28"/>
+      <selection pane="topRight" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1947,7 +1950,7 @@
       <c r="T1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="V1" s="6" t="s">
@@ -2745,7 +2748,9 @@
       <c r="T9" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="U9" s="45"/>
+      <c r="U9" s="83" t="s">
+        <v>176</v>
+      </c>
       <c r="V9" s="83" t="s">
         <v>176</v>
       </c>
@@ -2755,7 +2760,9 @@
       <c r="X9" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="Y9" s="38"/>
+      <c r="Y9" s="83" t="s">
+        <v>176</v>
+      </c>
       <c r="Z9" s="83" t="s">
         <v>176</v>
       </c>
@@ -4806,10 +4813,11 @@
       <c r="R37" s="42"/>
       <c r="S37" s="42"/>
       <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
+      <c r="U37" s="91"/>
       <c r="V37" s="66"/>
       <c r="W37" s="66"/>
       <c r="X37" s="66"/>
+      <c r="Y37" s="92"/>
       <c r="Z37" s="66" t="s">
         <v>131</v>
       </c>
@@ -4872,6 +4880,7 @@
       <c r="T38" s="64" t="s">
         <v>131</v>
       </c>
+      <c r="U38" s="92"/>
       <c r="V38" s="66"/>
       <c r="W38" s="66"/>
       <c r="X38" s="66"/>
@@ -4934,7 +4943,7 @@
       <c r="R39" s="42"/>
       <c r="S39" s="42"/>
       <c r="T39" s="42"/>
-      <c r="U39" s="64" t="s">
+      <c r="U39" s="93" t="s">
         <v>131</v>
       </c>
       <c r="V39" s="66"/>
